--- a/tradept/Excel/Localization/english/R容器定义表_Containers_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/R容器定义表_Containers_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4C5AF0-E192-4C36-A76C-73D2B2EE7ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D112F-27CE-4AF8-A513-250D2A64B2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>容器ID_ContainerID</t>
   </si>
@@ -125,63 +125,58 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Almacén Básico</t>
-  </si>
-  <si>
-    <t>Granero</t>
-  </si>
-  <si>
-    <t>Establos</t>
-  </si>
-  <si>
-    <t>Almacén</t>
-  </si>
-  <si>
-    <t>Biblioteca Antigua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Tesorería</t>
-  </si>
-  <si>
-    <t>Contenedor de recompensas</t>
-  </si>
-  <si>
-    <t>Contenedor de apuestas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Bolsa de premios</t>
-  </si>
-  <si>
-    <t>Contenedor de premios</t>
-  </si>
-  <si>
-    <t>Bolsa de premios</t>
-  </si>
-  <si>
-    <t>Puede ser usado para almacenar algunos objetos.</t>
-  </si>
-  <si>
-    <t>Almacena la comida producida en tus granjas en un Granero. Ten en cuenta que la comida almacenada aún puede caducar.</t>
-  </si>
-  <si>
-    <t>Detalles de la prueba</t>
-  </si>
-  <si>
-    <t>Puede ser utilizado para almacenar algunos elementos.</t>
-  </si>
-  <si>
-    <t>Los eruditos de la Biblioteca Antigua enseñan métodos para utilizar correctamente las Máquinas Antiguas. También son expertos en el arte de la identificación de joyas.</t>
-  </si>
-  <si>
-    <t>Utilizado para almacenar recursos compartidos por la tribu.</t>
-  </si>
-  <si>
-    <t>Puede ser utilizado para almacenar premios ganados en el torneo.</t>
-  </si>
-  <si>
-    <t>Puede ser utilizado para almacenar los Utars obtenidos de la apuesta.</t>
+    <t>Armazém Básico</t>
+  </si>
+  <si>
+    <t>Celeiro</t>
+  </si>
+  <si>
+    <t>Estábulos</t>
+  </si>
+  <si>
+    <t>Armazém</t>
+  </si>
+  <si>
+    <t>Biblioteca Antiga</t>
+  </si>
+  <si>
+    <t>Tesouraria</t>
+  </si>
+  <si>
+    <t>Recipientes de Recompensa</t>
+  </si>
+  <si>
+    <t>Recipientes de Aposta</t>
+  </si>
+  <si>
+    <t>Poço de Prêmios</t>
+  </si>
+  <si>
+    <t>Recipientes de Prêmio</t>
+  </si>
+  <si>
+    <t>Pode ser usado para armazenar alguns itens.</t>
+  </si>
+  <si>
+    <t>Armazene alimentos produzidos em suas fazendas em um Celeiro. Observe que os alimentos armazenados ainda podem expirar!</t>
+  </si>
+  <si>
+    <t>Detalhes do Teste</t>
+  </si>
+  <si>
+    <t>Os estudiosos na Biblioteca Antiga ensinam métodos para utilizar adequadamente as Máquinas Antigas. Eles também são habilidosos na arte de identificação de joias.</t>
+  </si>
+  <si>
+    <t>Usado para guardar recursos compartilhados pela tribo.</t>
+  </si>
+  <si>
+    <t>Pode ser usado para armazenar prêmios ganhos no torneio.</t>
+  </si>
+  <si>
+    <t>Pode ser usado para armazenar os Utars obtidos nas apostas.</t>
+  </si>
+  <si>
+    <t>Recipiente de Prêmio</t>
   </si>
 </sst>
 </file>
@@ -335,7 +330,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -686,13 +681,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="172.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75">
@@ -726,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="112.5">
@@ -743,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5">
@@ -760,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.5">
@@ -777,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.5">
@@ -794,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="90">
@@ -811,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33.75">
@@ -828,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.75">
@@ -845,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33.75">
@@ -862,10 +858,10 @@
         <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -879,7 +875,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5">
@@ -896,7 +892,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33.75">
@@ -907,13 +903,13 @@
         <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33.75">
@@ -930,7 +926,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
